--- a/slopes/slopes.xlsx
+++ b/slopes/slopes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shenkeyu/Documents/Introduction to Data Science/IDS_Final_Project_new/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shenkeyu/Documents/Introduction to Data Science/IDS_Final_Project_new/slopes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCB98E9-EB48-604F-91C4-F04365C475E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F514026-62D7-9F4B-8E5D-276C7BF6A51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="500" windowWidth="28240" windowHeight="15820" xr2:uid="{B88E0FF8-EE89-DB43-8C94-01E7F1E1FBF7}"/>
+    <workbookView xWindow="12580" yWindow="520" windowWidth="28240" windowHeight="15820" xr2:uid="{B88E0FF8-EE89-DB43-8C94-01E7F1E1FBF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19305EA-E10C-1946-B87F-41CA5B1FB685}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -477,13 +477,13 @@
         <v>2021</v>
       </c>
       <c r="C2">
-        <v>1.204244E-2</v>
+        <v>-6.6827250000000005E-2</v>
       </c>
       <c r="D2">
-        <v>3.0877059999999998</v>
+        <v>0.39106695000000002</v>
       </c>
       <c r="E2">
-        <v>1.473948E-5</v>
+        <v>0.33634233000000002</v>
       </c>
       <c r="F2">
         <v>0.58534589999999997</v>
@@ -497,13 +497,13 @@
         <v>2021</v>
       </c>
       <c r="C3">
-        <v>6.0384140000000003E-2</v>
+        <v>0.33509030000000001</v>
       </c>
       <c r="D3">
-        <v>4.5962829999999997</v>
+        <v>0.5821326</v>
       </c>
       <c r="E3">
-        <v>1.3797610000000001E-5</v>
+        <v>0.31484970000000001</v>
       </c>
       <c r="F3">
         <v>0.78792600000000002</v>
@@ -517,13 +517,13 @@
         <v>2021</v>
       </c>
       <c r="C4">
-        <v>1.9055286000000001E-3</v>
+        <v>1.057437E-2</v>
       </c>
       <c r="D4">
-        <v>0.1422253641</v>
+        <v>1.8013250000000001E-2</v>
       </c>
       <c r="E4">
-        <v>1.7777289999999999E-5</v>
+        <v>4.0566256200000002</v>
       </c>
       <c r="F4">
         <v>0.35558859999999998</v>
@@ -537,16 +537,16 @@
         <v>2021</v>
       </c>
       <c r="C5">
-        <v>-6.2532000000000004E-2</v>
+        <v>-0.34700950000000003</v>
       </c>
       <c r="D5">
-        <v>7.1401669999999999</v>
+        <v>0.90432279999999998</v>
       </c>
       <c r="E5">
-        <v>3.1144469999999998E-5</v>
+        <v>0.7106903</v>
       </c>
       <c r="F5">
-        <v>0.78879569999999999</v>
+        <v>0.78795700000000002</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -557,13 +557,13 @@
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>1.922455E-2</v>
+        <v>0.1003463</v>
       </c>
       <c r="D6">
-        <v>2.8249529999999998</v>
+        <v>0.31945689999999999</v>
       </c>
       <c r="E6">
-        <v>2.0467969999999999E-5</v>
+        <v>0.40119060000000001</v>
       </c>
       <c r="F6">
         <v>0.66491650000000002</v>
@@ -577,13 +577,13 @@
         <v>2020</v>
       </c>
       <c r="C7">
-        <v>5.771921E-2</v>
+        <v>0.30127680000000001</v>
       </c>
       <c r="D7">
-        <v>3.8231030000000001</v>
+        <v>0.43233159999999998</v>
       </c>
       <c r="E7">
-        <v>1.773129E-5</v>
+        <v>0.3475492</v>
       </c>
       <c r="F7">
         <v>0.78185420000000005</v>
@@ -597,13 +597,13 @@
         <v>2020</v>
       </c>
       <c r="C8">
-        <v>1.4429707999999999E-2</v>
+        <v>7.5318709999999997E-2</v>
       </c>
       <c r="D8">
-        <v>0.73414748259999996</v>
+        <v>8.302031E-2</v>
       </c>
       <c r="E8">
-        <v>1.0459629999999999E-4</v>
+        <v>2.0501824200000001</v>
       </c>
       <c r="F8">
         <v>0.24326500000000001</v>
@@ -617,13 +617,13 @@
         <v>2020</v>
       </c>
       <c r="C9">
-        <v>-6.8472699999999997E-2</v>
+        <v>-0.35740670000000002</v>
       </c>
       <c r="D9">
-        <v>6.5591900000000001</v>
+        <v>0.74173920000000004</v>
       </c>
       <c r="E9">
-        <v>3.5991010000000002E-5</v>
+        <v>0.70545610000000003</v>
       </c>
       <c r="F9">
         <v>0.74722180000000005</v>
@@ -637,13 +637,13 @@
         <v>2019</v>
       </c>
       <c r="C10">
-        <v>1.616971E-2</v>
+        <v>9.9752300000000002E-2</v>
       </c>
       <c r="D10">
-        <v>1.182491</v>
+        <v>0.141399</v>
       </c>
       <c r="E10">
-        <v>1.471991E-5</v>
+        <v>0.31172369999999999</v>
       </c>
       <c r="F10">
         <v>0.47266320000000001</v>
@@ -657,16 +657,16 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>0.11075749999999999</v>
+        <v>0.68327230000000005</v>
       </c>
       <c r="D11">
-        <v>3.1802359999999998</v>
+        <v>0.38028410000000001</v>
       </c>
       <c r="E11">
-        <v>1.603895E-5</v>
+        <v>0.33965709999999999</v>
       </c>
       <c r="F11">
-        <v>0.81149150000000003</v>
+        <v>0.81144914999999995</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -677,16 +677,16 @@
         <v>2019</v>
       </c>
       <c r="C12">
-        <v>3.8314250000000001E-2</v>
+        <v>0.23636380000000001</v>
       </c>
       <c r="D12">
-        <v>0.84615790000000002</v>
+        <v>0.1011813</v>
       </c>
       <c r="E12">
-        <v>5.5570530000000001E-5</v>
+        <v>1.1768178</v>
       </c>
       <c r="F12">
-        <v>0.19</v>
+        <v>0.1900396</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -697,13 +697,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>1.9478929999999998E-2</v>
+        <v>0.1201672</v>
       </c>
       <c r="D13">
-        <v>4.8812259999999998</v>
+        <v>0.58368390000000003</v>
       </c>
       <c r="E13">
-        <v>2.146637E-5</v>
+        <v>0.45459349999999998</v>
       </c>
       <c r="F13">
         <v>0.65010029999999996</v>
@@ -717,13 +717,13 @@
         <v>2018</v>
       </c>
       <c r="C14">
-        <v>1.9241879999999999E-2</v>
+        <v>0.1177926</v>
       </c>
       <c r="D14">
-        <v>6.3044089999999997</v>
+        <v>0.73414950000000001</v>
       </c>
       <c r="E14">
-        <v>9.7158760000000006E-6</v>
+        <v>0.2058189</v>
       </c>
       <c r="F14">
         <v>0.72910350000000002</v>
@@ -737,13 +737,13 @@
         <v>2018</v>
       </c>
       <c r="C15">
-        <v>0.12346699999999999</v>
+        <v>0.75582499999999997</v>
       </c>
       <c r="D15">
-        <v>4.748418</v>
+        <v>0.5529541</v>
       </c>
       <c r="E15">
-        <v>1.273257E-5</v>
+        <v>0.26972390000000002</v>
       </c>
       <c r="F15">
         <v>0.76973999999999998</v>
@@ -757,13 +757,13 @@
         <v>2018</v>
       </c>
       <c r="C16">
-        <v>5.9135910000000002E-3</v>
+        <v>3.6201089999999998E-2</v>
       </c>
       <c r="D16">
-        <v>-0.67585740000000005</v>
+        <v>-7.8703709999999996E-2</v>
       </c>
       <c r="E16">
-        <v>9.8915880000000005E-5</v>
+        <v>2.0954112899999999</v>
       </c>
       <c r="F16">
         <v>0.15188599999999999</v>
@@ -777,13 +777,13 @@
         <v>2018</v>
       </c>
       <c r="C17">
-        <v>2.3748519999999999E-2</v>
+        <v>0.1453808</v>
       </c>
       <c r="D17">
-        <v>4.2002329999999999</v>
+        <v>0.48911779999999999</v>
       </c>
       <c r="E17">
-        <v>2.1533660000000001E-5</v>
+        <v>0.45616400000000001</v>
       </c>
       <c r="F17">
         <v>0.60333930000000002</v>
@@ -797,16 +797,16 @@
         <v>2017</v>
       </c>
       <c r="C18">
-        <v>8.0008969999999999E-2</v>
+        <v>0.52642610000000001</v>
       </c>
       <c r="D18">
-        <v>3.2076349999999998</v>
+        <v>0.39664850000000001</v>
       </c>
       <c r="E18">
-        <v>1.337994E-5</v>
+        <v>0.27114260000000001</v>
       </c>
       <c r="F18">
-        <v>6.6079299999999994E-2</v>
+        <v>0.66079299999999996</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -817,13 +817,13 @@
         <v>2017</v>
       </c>
       <c r="C19">
-        <v>8.6756810000000004E-2</v>
+        <v>0.57082409999999995</v>
       </c>
       <c r="D19">
-        <v>5.1023680000000002</v>
+        <v>0.63094660000000002</v>
       </c>
       <c r="E19">
-        <v>1.5774230000000001E-5</v>
+        <v>0.31966260000000002</v>
       </c>
       <c r="F19">
         <v>0.79028969999999998</v>
@@ -837,13 +837,13 @@
         <v>2017</v>
       </c>
       <c r="C20">
-        <v>2.69568E-2</v>
+        <v>0.17736460000000001</v>
       </c>
       <c r="D20">
-        <v>0.92340449999999996</v>
+        <v>0.114186</v>
       </c>
       <c r="E20">
-        <v>6.8357549999999994E-5</v>
+        <v>1.3852564000000001</v>
       </c>
       <c r="F20">
         <v>0.25856580000000001</v>
@@ -857,13 +857,13 @@
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>1.045652E-2</v>
+        <v>6.8799579999999999E-2</v>
       </c>
       <c r="D21">
-        <v>4.6134370000000002</v>
+        <v>0.57048662999999999</v>
       </c>
       <c r="E21">
-        <v>2.797782E-5</v>
+        <v>0.56696663999999997</v>
       </c>
       <c r="F21">
         <v>0.62875539999999996</v>
@@ -877,13 +877,13 @@
         <v>2016</v>
       </c>
       <c r="C22">
-        <v>9.4394439999999996E-2</v>
+        <v>0.63682039999999995</v>
       </c>
       <c r="D22">
-        <v>4.1100669999999999</v>
+        <v>0.52277399999999996</v>
       </c>
       <c r="E22">
-        <v>8.8835730000000003E-6</v>
+        <v>0.17360210000000001</v>
       </c>
       <c r="F22">
         <v>0.72338910000000001</v>
@@ -897,13 +897,13 @@
         <v>2016</v>
       </c>
       <c r="C23">
-        <v>8.2509609999999997E-2</v>
+        <v>0.55664089999999999</v>
       </c>
       <c r="D23">
-        <v>4.2757079999999998</v>
+        <v>0.54384250000000001</v>
       </c>
       <c r="E23">
-        <v>1.8877779999999999E-5</v>
+        <v>0.36678309999999997</v>
       </c>
       <c r="F23">
         <v>0.73698419999999998</v>
@@ -917,13 +917,13 @@
         <v>2016</v>
       </c>
       <c r="C24">
-        <v>3.6282250000000002E-2</v>
+        <v>0.24477370000000001</v>
       </c>
       <c r="D24">
-        <v>1.8476250000000001</v>
+        <v>0.23500589999999999</v>
       </c>
       <c r="E24">
-        <v>7.0389110000000001E-5</v>
+        <v>1.3676153</v>
       </c>
       <c r="F24">
         <v>0.4430868</v>
@@ -937,13 +937,13 @@
         <v>2016</v>
       </c>
       <c r="C25">
-        <v>4.3568340000000004E-3</v>
+        <v>2.939284E-2</v>
       </c>
       <c r="D25">
-        <v>2.735004</v>
+        <v>0.34787480999999998</v>
       </c>
       <c r="E25">
-        <v>2.981047E-5</v>
+        <v>0.57919838999999995</v>
       </c>
       <c r="F25">
         <v>0.64752279999999995</v>
@@ -957,13 +957,13 @@
         <v>2015</v>
       </c>
       <c r="C26">
-        <v>0.1062003</v>
+        <v>0.69463490000000006</v>
       </c>
       <c r="D26">
-        <v>3.3218190000000001</v>
+        <v>0.42337530000000001</v>
       </c>
       <c r="E26">
-        <v>1.344249E-5</v>
+        <v>0.25825029999999999</v>
       </c>
       <c r="F26">
         <v>0.74425330000000001</v>
@@ -977,13 +977,13 @@
         <v>2015</v>
       </c>
       <c r="C27">
-        <v>6.3247040000000004E-2</v>
+        <v>0.41368630000000001</v>
       </c>
       <c r="D27">
-        <v>3.5272070000000002</v>
+        <v>0.44955260000000002</v>
       </c>
       <c r="E27">
-        <v>1.846132E-5</v>
+        <v>0.35466950000000003</v>
       </c>
       <c r="F27">
         <v>0.68903579999999998</v>
@@ -997,13 +997,13 @@
         <v>2015</v>
       </c>
       <c r="C28">
-        <v>6.3247040000000004E-2</v>
+        <v>7.6006279999999996E-2</v>
       </c>
       <c r="D28">
-        <v>3.5272070000000002</v>
+        <v>1.7777620000000001E-2</v>
       </c>
       <c r="E28">
-        <v>1.846132E-5</v>
+        <v>2.26452199</v>
       </c>
       <c r="F28">
         <v>0.17766470000000001</v>
@@ -1017,13 +1017,13 @@
         <v>2015</v>
       </c>
       <c r="C29">
-        <v>1.5883635E-2</v>
+        <v>0.1038917</v>
       </c>
       <c r="D29">
-        <v>3.4941034051000002</v>
+        <v>0.44533339999999999</v>
       </c>
       <c r="E29">
-        <v>3.2038700000000002E-5</v>
+        <v>0.61551109999999998</v>
       </c>
       <c r="F29">
         <v>0.72681790000000002</v>
@@ -1037,13 +1037,13 @@
         <v>2014</v>
       </c>
       <c r="C30">
-        <v>0.11363090000000001</v>
+        <v>0.75418450000000004</v>
       </c>
       <c r="D30">
-        <v>9.0109419999999996E-2</v>
+        <v>1.053889E-2</v>
       </c>
       <c r="E30">
-        <v>1.970139E-5</v>
+        <v>0.41759592000000001</v>
       </c>
       <c r="F30">
         <v>0.63921819999999996</v>
@@ -1057,13 +1057,13 @@
         <v>2014</v>
       </c>
       <c r="C31">
-        <v>2.6453520000000001E-2</v>
+        <v>0.1755758</v>
       </c>
       <c r="D31">
-        <v>3.469875</v>
+        <v>0.40582479999999999</v>
       </c>
       <c r="E31">
-        <v>1.8906109999999999E-5</v>
+        <v>0.40073890000000001</v>
       </c>
       <c r="F31">
         <v>0.6944652</v>
@@ -1077,13 +1077,13 @@
         <v>2014</v>
       </c>
       <c r="C32">
-        <v>5.3998600000000001E-2</v>
+        <v>0.3583963</v>
       </c>
       <c r="D32">
-        <v>1.5032129999999999</v>
+        <v>0.17581060000000001</v>
       </c>
       <c r="E32">
-        <v>4.8094830000000001E-5</v>
+        <v>1.0194308000000001</v>
       </c>
       <c r="F32">
         <v>0.2766497</v>
@@ -1097,13 +1097,13 @@
         <v>2014</v>
       </c>
       <c r="C33">
-        <v>1.2555802099999999E-2</v>
+        <v>8.3334619999999998E-2</v>
       </c>
       <c r="D33">
-        <v>3.7029501530000002</v>
+        <v>0.43308445000000001</v>
       </c>
       <c r="E33">
-        <v>3.4035899999999997E-5</v>
+        <v>0.72143402000000001</v>
       </c>
       <c r="F33">
         <v>0.67366009999999998</v>
@@ -1117,13 +1117,13 @@
         <v>2013</v>
       </c>
       <c r="C34">
-        <v>7.8112566999999994E-2</v>
+        <v>0.51532661000000002</v>
       </c>
       <c r="D34">
-        <v>-0.48491681679999998</v>
+        <v>-5.3987359999999998E-2</v>
       </c>
       <c r="E34">
-        <v>2.6676799999999998E-5</v>
+        <v>0.51733401000000001</v>
       </c>
       <c r="F34">
         <v>0.58345179999999996</v>
@@ -1137,13 +1137,13 @@
         <v>2013</v>
       </c>
       <c r="C35">
-        <v>5.4690030000000001E-2</v>
+        <v>0.36080269999999998</v>
       </c>
       <c r="D35">
-        <v>5.3576059999999996</v>
+        <v>0.5964796</v>
       </c>
       <c r="E35">
-        <v>1.9629349999999999E-5</v>
+        <v>0.38066529999999998</v>
       </c>
       <c r="F35">
         <v>0.73705969999999998</v>
@@ -1157,13 +1157,13 @@
         <v>2013</v>
       </c>
       <c r="C36">
-        <v>1.6792359999999999E-2</v>
+        <v>0.1107831</v>
       </c>
       <c r="D36">
-        <v>-1.1386400000000001</v>
+        <v>-0.12676850000000001</v>
       </c>
       <c r="E36">
-        <v>1.792357E-5</v>
+        <v>0.34758559999999999</v>
       </c>
       <c r="F36">
         <v>6.4157539999999999E-2</v>
@@ -1177,13 +1177,13 @@
         <v>2013</v>
       </c>
       <c r="C37">
-        <v>5.317273E-3</v>
+        <v>3.5079279999999997E-2</v>
       </c>
       <c r="D37">
-        <v>3.98515</v>
+        <v>0.44367960000000001</v>
       </c>
       <c r="E37">
-        <v>3.0339879999999999E-5</v>
+        <v>0.58837075999999999</v>
       </c>
       <c r="F37">
         <v>0.71216809999999997</v>
@@ -1197,13 +1197,13 @@
         <v>2012</v>
       </c>
       <c r="C38">
-        <v>6.4442570000000005E-2</v>
+        <v>4.2795119999999999E-2</v>
       </c>
       <c r="D38">
-        <v>0.54243929999999996</v>
+        <v>6.2368939999999998E-2</v>
       </c>
       <c r="E38">
-        <v>2.398236E-5</v>
+        <v>5.1429029000000001E-2</v>
       </c>
       <c r="F38">
         <v>0.55312490000000003</v>
@@ -1217,13 +1217,13 @@
         <v>2012</v>
       </c>
       <c r="C39">
-        <v>4.9863909999999997E-2</v>
+        <v>0.33113700000000001</v>
       </c>
       <c r="D39">
-        <v>4.7941469999999997</v>
+        <v>0.55122450000000001</v>
       </c>
       <c r="E39">
-        <v>1.9595249999999998E-5</v>
+        <v>0.4202109</v>
       </c>
       <c r="F39">
         <v>0.73584269999999996</v>
@@ -1237,13 +1237,13 @@
         <v>2012</v>
       </c>
       <c r="C40">
-        <v>2.4460849999999999E-2</v>
+        <v>0.16244</v>
       </c>
       <c r="D40">
-        <v>3.5569199999999999</v>
+        <v>0.4089699</v>
       </c>
       <c r="E40">
-        <v>4.6135769999999998E-5</v>
+        <v>0.98935949999999995</v>
       </c>
       <c r="F40">
         <v>0.50606910000000005</v>
@@ -1257,13 +1257,13 @@
         <v>2012</v>
       </c>
       <c r="C41">
-        <v>2.4266551899999999E-2</v>
+        <v>0.16114970000000001</v>
       </c>
       <c r="D41">
-        <v>3.1648281659999999</v>
+        <v>0.36388769999999998</v>
       </c>
       <c r="E41">
-        <v>2.14239E-5</v>
+        <v>0.45942519999999998</v>
       </c>
       <c r="F41">
         <v>0.65040779999999998</v>
@@ -1277,13 +1277,13 @@
         <v>2011</v>
       </c>
       <c r="C42">
-        <v>-8.2167187999999999E-3</v>
+        <v>-6.2957650000000004E-2</v>
       </c>
       <c r="D42">
-        <v>6.0261381722999996</v>
+        <v>0.78051031000000004</v>
       </c>
       <c r="E42">
-        <v>2.2238600000000001E-5</v>
+        <v>0.43653311</v>
       </c>
       <c r="F42">
         <v>0.63391969999999997</v>
@@ -1297,13 +1297,13 @@
         <v>2011</v>
       </c>
       <c r="C43">
-        <v>7.8670500000000004E-2</v>
+        <v>0.6027844</v>
       </c>
       <c r="D43">
-        <v>4.7113170000000002</v>
+        <v>0.61021369999999997</v>
       </c>
       <c r="E43">
-        <v>1.7726070000000001E-5</v>
+        <v>0.34795409999999999</v>
       </c>
       <c r="F43">
         <v>0.73971699999999996</v>
@@ -1317,13 +1317,13 @@
         <v>2011</v>
       </c>
       <c r="C44">
-        <v>7.8639920000000002E-3</v>
+        <v>6.0255009999999998E-2</v>
       </c>
       <c r="D44">
-        <v>2.379429</v>
+        <v>0.30818559000000001</v>
       </c>
       <c r="E44">
-        <v>1.756908E-5</v>
+        <v>0.54116779999999998</v>
       </c>
       <c r="F44">
         <v>0.40132800000000002</v>
@@ -1337,13 +1337,13 @@
         <v>2011</v>
       </c>
       <c r="C45">
-        <v>5.225403E-2</v>
+        <v>0.4003777</v>
       </c>
       <c r="D45">
-        <v>2.4356990000000001</v>
+        <v>0.31547370000000002</v>
       </c>
       <c r="E45">
-        <v>2.1861560000000001E-5</v>
+        <v>0.42913180000000001</v>
       </c>
       <c r="F45">
         <v>0.6272913</v>
